--- a/Delivery-Schedule.xlsx
+++ b/Delivery-Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Design Document</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Add authentication of staff and users, used encryped passwords</t>
+  </si>
+  <si>
+    <t>Phase IV</t>
+  </si>
+  <si>
+    <t>Use CICD with Jenkins</t>
+  </si>
+  <si>
+    <t>Deploy in tomcat and test the functionality</t>
+  </si>
+  <si>
+    <t>Implement Aouth 2 for authentication and authorization</t>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,6 +546,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
